--- a/assets/templates/contract_upload_template.xlsx
+++ b/assets/templates/contract_upload_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\System Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D2F61-E6C4-4F79-A6D2-9BDC31FBA84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6419D66-59DE-4FCF-A7EB-6DB24FDCF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contracts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>contract_id</t>
   </si>
@@ -91,16 +91,22 @@
     <t>Tariff Rate</t>
   </si>
   <si>
-    <t>Valid From Valid To</t>
-  </si>
-  <si>
     <t>Aggregation Rule</t>
+  </si>
+  <si>
+    <t>fk_vendor_group</t>
+  </si>
+  <si>
+    <t>Vendor Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,23 +419,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,13 +453,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -468,9 +479,12 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -484,13 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B86E196-15DF-4497-803B-EA30C182A3FA}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,10 +549,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/contract_upload_template.xlsx
+++ b/assets/templates/contract_upload_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Libra\Backend\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6419D66-59DE-4FCF-A7EB-6DB24FDCF410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D6EEEB-8E00-4DCF-97F9-003C7C0C8591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,19 +94,16 @@
     <t>Aggregation Rule</t>
   </si>
   <si>
-    <t>fk_vendor_group</t>
-  </si>
-  <si>
     <t>Vendor Group</t>
+  </si>
+  <si>
+    <t>vendor_group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +135,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,12 +450,12 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -479,12 +476,12 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -499,7 +496,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
